--- a/Batt_Temp_Month.xlsx
+++ b/Batt_Temp_Month.xlsx
@@ -678,16 +678,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>30.17910891089108</v>
+        <v>30.36894366197182</v>
       </c>
       <c r="C13">
-        <v>27.28118811881188</v>
+        <v>26.61549295774649</v>
       </c>
       <c r="D13">
-        <v>27.28118811881188</v>
+        <v>26.61549295774649</v>
       </c>
       <c r="E13">
-        <v>29.24871287128713</v>
+        <v>29.13345070422535</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -695,16 +695,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>29.84014084507041</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>25.47957746478873</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>25.47957746478873</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>27.65450704225353</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -712,16 +712,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>27.40859154929578</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>23.47887323943662</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>23.47887323943662</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>25.25387323943661</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -729,16 +729,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>4967.880212765958</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>24.1372340425532</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>24.1372340425532</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>25.64478723404255</v>
       </c>
     </row>
     <row r="17" spans="1:5">

--- a/Batt_Temp_Month.xlsx
+++ b/Batt_Temp_Month.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Average Battery Temperature for March 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>Average Battery Temperature for April 2023</t>
   </si>
   <si>
     <t>Days</t>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
   </si>
 </sst>
 </file>
@@ -470,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,16 +505,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>27.78304964539008</v>
+        <v>25.88170212765958</v>
       </c>
       <c r="C3">
-        <v>24.27872340425533</v>
+        <v>21.00709219858154</v>
       </c>
       <c r="D3">
-        <v>24.27872340425533</v>
+        <v>21.00709219858154</v>
       </c>
       <c r="E3">
-        <v>26.49120567375886</v>
+        <v>23.29978723404256</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -525,16 +522,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>28.44169014084506</v>
+        <v>28.2750495049505</v>
       </c>
       <c r="C4">
-        <v>24.6556338028169</v>
+        <v>25.17821782178217</v>
       </c>
       <c r="D4">
-        <v>24.6556338028169</v>
+        <v>25.17821782178217</v>
       </c>
       <c r="E4">
-        <v>26.74239436619719</v>
+        <v>27.6250495049505</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -542,16 +539,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>28.83830985915493</v>
+        <v>28.38304964539008</v>
       </c>
       <c r="C5">
-        <v>25.41690140845071</v>
+        <v>24.30283687943262</v>
       </c>
       <c r="D5">
-        <v>25.41690140845071</v>
+        <v>24.30283687943262</v>
       </c>
       <c r="E5">
-        <v>26.94415492957746</v>
+        <v>26.88460992907802</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -559,16 +556,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>28.92751773049645</v>
+        <v>29.27823943661971</v>
       </c>
       <c r="C6">
-        <v>24.82978723404255</v>
+        <v>25.70845070422535</v>
       </c>
       <c r="D6">
-        <v>24.82978723404255</v>
+        <v>25.70845070422535</v>
       </c>
       <c r="E6">
-        <v>27.11354609929077</v>
+        <v>27.93422535211266</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -576,16 +573,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>29.82549295774647</v>
+        <v>28.92679245283018</v>
       </c>
       <c r="C7">
-        <v>26.52394366197181</v>
+        <v>25.08113207547171</v>
       </c>
       <c r="D7">
-        <v>26.52394366197181</v>
+        <v>25.08113207547171</v>
       </c>
       <c r="E7">
-        <v>28.66352112676057</v>
+        <v>27.34443396226416</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -593,16 +590,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>29.84690140845069</v>
+        <v>27.37774647887323</v>
       </c>
       <c r="C8">
-        <v>26.22535211267605</v>
+        <v>23.48732394366197</v>
       </c>
       <c r="D8">
-        <v>26.22535211267605</v>
+        <v>23.48732394366197</v>
       </c>
       <c r="E8">
-        <v>28.13169014084507</v>
+        <v>25.48007042253521</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -610,16 +607,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>30.84035460992909</v>
+        <v>28.0113475177305</v>
       </c>
       <c r="C9">
-        <v>26.78794326241134</v>
+        <v>24.08297872340425</v>
       </c>
       <c r="D9">
-        <v>26.78794326241134</v>
+        <v>24.08297872340425</v>
       </c>
       <c r="E9">
-        <v>29.01510638297872</v>
+        <v>26.1277304964539</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -627,16 +624,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>30.43028169014086</v>
+        <v>29.20345070422535</v>
       </c>
       <c r="C10">
-        <v>27.23802816901409</v>
+        <v>25.91901408450706</v>
       </c>
       <c r="D10">
-        <v>27.23802816901409</v>
+        <v>25.91901408450706</v>
       </c>
       <c r="E10">
-        <v>28.87140845070421</v>
+        <v>27.74852112676058</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -644,16 +641,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>30.98295774647885</v>
+        <v>30.44380281690141</v>
       </c>
       <c r="C11">
-        <v>26.86478873239436</v>
+        <v>26.39788732394366</v>
       </c>
       <c r="D11">
-        <v>26.86478873239436</v>
+        <v>26.39788732394366</v>
       </c>
       <c r="E11">
-        <v>29.45978873239437</v>
+        <v>29.11014084507042</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -661,16 +658,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>30.51156028368795</v>
+        <v>31.48192307692307</v>
       </c>
       <c r="C12">
-        <v>26.06028368794325</v>
+        <v>27.79615384615384</v>
       </c>
       <c r="D12">
-        <v>26.06028368794325</v>
+        <v>27.79615384615384</v>
       </c>
       <c r="E12">
-        <v>28.58496453900709</v>
+        <v>30.59548076923076</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -678,16 +675,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>30.36894366197182</v>
+        <v>30.54305555555557</v>
       </c>
       <c r="C13">
-        <v>26.61549295774649</v>
+        <v>27.50648148148148</v>
       </c>
       <c r="D13">
-        <v>26.61549295774649</v>
+        <v>27.50648148148148</v>
       </c>
       <c r="E13">
-        <v>29.13345070422535</v>
+        <v>29.53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -695,16 +692,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>29.84014084507041</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>25.47957746478873</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>25.47957746478873</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>27.65450704225353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -712,16 +709,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>27.40859154929578</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>23.47887323943662</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>23.47887323943662</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>25.25387323943661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -729,16 +726,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4967.880212765958</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>24.1372340425532</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>24.1372340425532</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>25.64478723404255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1010,23 +1007,6 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
         <v>0</v>
       </c>
     </row>

--- a/Batt_Temp_Month.xlsx
+++ b/Batt_Temp_Month.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Average Battery Temperature for April 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>Average Battery Temperature for March 2023</t>
   </si>
   <si>
     <t>Days</t>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,16 +508,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>25.88170212765958</v>
+        <v>27.78304964539008</v>
       </c>
       <c r="C3">
-        <v>21.00709219858154</v>
+        <v>24.27872340425533</v>
       </c>
       <c r="D3">
-        <v>21.00709219858154</v>
+        <v>24.27872340425533</v>
       </c>
       <c r="E3">
-        <v>23.29978723404256</v>
+        <v>26.49120567375886</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -522,16 +525,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>28.2750495049505</v>
+        <v>28.44169014084506</v>
       </c>
       <c r="C4">
-        <v>25.17821782178217</v>
+        <v>24.6556338028169</v>
       </c>
       <c r="D4">
-        <v>25.17821782178217</v>
+        <v>24.6556338028169</v>
       </c>
       <c r="E4">
-        <v>27.6250495049505</v>
+        <v>26.74239436619719</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -539,16 +542,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>28.38304964539008</v>
+        <v>28.83830985915493</v>
       </c>
       <c r="C5">
-        <v>24.30283687943262</v>
+        <v>25.41690140845071</v>
       </c>
       <c r="D5">
-        <v>24.30283687943262</v>
+        <v>25.41690140845071</v>
       </c>
       <c r="E5">
-        <v>26.88460992907802</v>
+        <v>26.94415492957746</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -556,16 +559,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>29.27823943661971</v>
+        <v>28.92751773049645</v>
       </c>
       <c r="C6">
-        <v>25.70845070422535</v>
+        <v>24.82978723404255</v>
       </c>
       <c r="D6">
-        <v>25.70845070422535</v>
+        <v>24.82978723404255</v>
       </c>
       <c r="E6">
-        <v>27.93422535211266</v>
+        <v>27.11354609929077</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -573,16 +576,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>28.92679245283018</v>
+        <v>29.82549295774647</v>
       </c>
       <c r="C7">
-        <v>25.08113207547171</v>
+        <v>26.52394366197181</v>
       </c>
       <c r="D7">
-        <v>25.08113207547171</v>
+        <v>26.52394366197181</v>
       </c>
       <c r="E7">
-        <v>27.34443396226416</v>
+        <v>28.66352112676057</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -590,16 +593,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>27.37774647887323</v>
+        <v>29.84690140845069</v>
       </c>
       <c r="C8">
-        <v>23.48732394366197</v>
+        <v>26.22535211267605</v>
       </c>
       <c r="D8">
-        <v>23.48732394366197</v>
+        <v>26.22535211267605</v>
       </c>
       <c r="E8">
-        <v>25.48007042253521</v>
+        <v>28.13169014084507</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -607,16 +610,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>28.0113475177305</v>
+        <v>30.84035460992909</v>
       </c>
       <c r="C9">
-        <v>24.08297872340425</v>
+        <v>26.78794326241134</v>
       </c>
       <c r="D9">
-        <v>24.08297872340425</v>
+        <v>26.78794326241134</v>
       </c>
       <c r="E9">
-        <v>26.1277304964539</v>
+        <v>29.01510638297872</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -624,16 +627,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>29.20345070422535</v>
+        <v>30.43028169014086</v>
       </c>
       <c r="C10">
-        <v>25.91901408450706</v>
+        <v>27.23802816901409</v>
       </c>
       <c r="D10">
-        <v>25.91901408450706</v>
+        <v>27.23802816901409</v>
       </c>
       <c r="E10">
-        <v>27.74852112676058</v>
+        <v>28.87140845070421</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -641,16 +644,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>30.44380281690141</v>
+        <v>30.98295774647885</v>
       </c>
       <c r="C11">
-        <v>26.39788732394366</v>
+        <v>26.86478873239436</v>
       </c>
       <c r="D11">
-        <v>26.39788732394366</v>
+        <v>26.86478873239436</v>
       </c>
       <c r="E11">
-        <v>29.11014084507042</v>
+        <v>29.45978873239437</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -658,16 +661,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>31.48192307692307</v>
+        <v>30.51156028368795</v>
       </c>
       <c r="C12">
-        <v>27.79615384615384</v>
+        <v>26.06028368794325</v>
       </c>
       <c r="D12">
-        <v>27.79615384615384</v>
+        <v>26.06028368794325</v>
       </c>
       <c r="E12">
-        <v>30.59548076923076</v>
+        <v>28.58496453900709</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -675,16 +678,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>30.54305555555557</v>
+        <v>30.36894366197182</v>
       </c>
       <c r="C13">
-        <v>27.50648148148148</v>
+        <v>26.61549295774649</v>
       </c>
       <c r="D13">
-        <v>27.50648148148148</v>
+        <v>26.61549295774649</v>
       </c>
       <c r="E13">
-        <v>29.53</v>
+        <v>29.13345070422535</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -692,16 +695,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>29.84014084507041</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>25.47957746478873</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>25.47957746478873</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>27.65450704225353</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -709,16 +712,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>27.40859154929578</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>23.47887323943662</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>23.47887323943662</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>25.25387323943661</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -726,16 +729,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3320.97524822695</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>23.32340425531914</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>23.32340425531914</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>25.33780141843971</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -743,16 +746,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>27.56711267605635</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>23.5323943661972</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>23.5323943661972</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>26.08753521126762</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -760,16 +763,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>27.6981690140845</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>24.10985915492957</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>24.10985915492957</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>26.0081690140845</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -777,16 +780,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>28.53446808510639</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>24.5553191489362</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>24.5553191489362</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>26.70404255319149</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -794,16 +797,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>28.66845070422535</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>25.3612676056338</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>25.3612676056338</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>26.86535211267605</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -811,16 +814,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>29.30091549295774</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>25.57464788732394</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>25.57464788732394</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>27.62225352112677</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -828,16 +831,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>29.56659574468086</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>26.28297872340426</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>26.28297872340426</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>27.36226950354609</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -845,16 +848,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>28.23260869565217</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>25.96521739130435</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>25.96521739130435</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>26.04333333333334</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -896,16 +899,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>31.33425287356322</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>26.87241379310345</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>26.87241379310345</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>29.76425287356323</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -913,16 +916,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>29.76654929577465</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>25.71197183098592</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>25.71197183098592</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>28.14211267605634</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -930,16 +933,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>30.19758865248227</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>26.63758865248225</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>26.63758865248225</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>28.83297872340426</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -947,16 +950,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>30.10154929577464</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>25.76549295774649</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>25.76549295774649</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>28.46183098591549</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -964,16 +967,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>29.96648854961832</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>25.47099236641221</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>25.47099236641221</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>27.90725190839695</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -981,16 +984,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>29.30774647887324</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>25.34507042253521</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>25.34507042253521</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>26.96859154929577</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -998,16 +1001,33 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>29.35423728813559</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>25.20338983050845</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>25.20338983050845</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>26.92347457627119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>29.30411347517731</v>
+      </c>
+      <c r="C33">
+        <v>24.86382978723405</v>
+      </c>
+      <c r="D33">
+        <v>24.86382978723405</v>
+      </c>
+      <c r="E33">
+        <v>27.73716312056737</v>
       </c>
     </row>
   </sheetData>
